--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H2">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I2">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J2">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>3221.08590560484</v>
+        <v>3291.29185679669</v>
       </c>
       <c r="R2">
-        <v>28989.77315044356</v>
+        <v>29621.62671117021</v>
       </c>
       <c r="S2">
-        <v>0.02812699543508753</v>
+        <v>0.03457590024043512</v>
       </c>
       <c r="T2">
-        <v>0.03183858401823567</v>
+        <v>0.03619728642602047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H3">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I3">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J3">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>21212.90018121855</v>
+        <v>16661.43073458874</v>
       </c>
       <c r="R3">
-        <v>190916.1016309669</v>
+        <v>149952.8766112986</v>
       </c>
       <c r="S3">
-        <v>0.1852341614124273</v>
+        <v>0.175032781049914</v>
       </c>
       <c r="T3">
-        <v>0.2096773338193078</v>
+        <v>0.18324068688159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H4">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I4">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J4">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>17814.82623609864</v>
+        <v>19418.97900990931</v>
       </c>
       <c r="R4">
-        <v>160333.4361248878</v>
+        <v>174770.8110891838</v>
       </c>
       <c r="S4">
-        <v>0.1555616804096176</v>
+        <v>0.204001562374723</v>
       </c>
       <c r="T4">
-        <v>0.1760893246905782</v>
+        <v>0.21356791676527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H5">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I5">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J5">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>7868.161113314985</v>
+        <v>5931.741491221011</v>
       </c>
       <c r="R5">
-        <v>47208.96667988991</v>
+        <v>35590.44894732606</v>
       </c>
       <c r="S5">
-        <v>0.06870593899146184</v>
+        <v>0.06231452905915196</v>
       </c>
       <c r="T5">
-        <v>0.05184816880944669</v>
+        <v>0.04349111840273159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H6">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I6">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J6">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>18339.77752047672</v>
+        <v>22509.2021081973</v>
       </c>
       <c r="R6">
-        <v>165057.9976842905</v>
+        <v>202582.8189737757</v>
       </c>
       <c r="S6">
-        <v>0.160145632161309</v>
+        <v>0.2364651815905178</v>
       </c>
       <c r="T6">
-        <v>0.1812781666100283</v>
+        <v>0.2475538698426439</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J7">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>837.6476900616876</v>
+        <v>1089.715778579327</v>
       </c>
       <c r="R7">
-        <v>7538.829210555188</v>
+        <v>9807.442007213942</v>
       </c>
       <c r="S7">
-        <v>0.007314462713825889</v>
+        <v>0.0114477553768986</v>
       </c>
       <c r="T7">
-        <v>0.00827966628002807</v>
+        <v>0.01198458109351023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J8">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>5516.443012397804</v>
       </c>
       <c r="R8">
-        <v>49647.98711158024</v>
+        <v>49647.98711158023</v>
       </c>
       <c r="S8">
-        <v>0.04817039097207751</v>
+        <v>0.05795170759008567</v>
       </c>
       <c r="T8">
-        <v>0.05452687058933206</v>
+        <v>0.06066926801408761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J9">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>4632.769346372427</v>
+        <v>6429.441311107068</v>
       </c>
       <c r="R9">
-        <v>41694.92411735185</v>
+        <v>57864.97179996361</v>
       </c>
       <c r="S9">
-        <v>0.04045402267306573</v>
+        <v>0.06754299863000651</v>
       </c>
       <c r="T9">
-        <v>0.0457922639737509</v>
+        <v>0.07071032859539179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J10">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>2046.125801902174</v>
+        <v>1963.943818622127</v>
       </c>
       <c r="R10">
-        <v>12276.75481141304</v>
+        <v>11783.66291173276</v>
       </c>
       <c r="S10">
-        <v>0.0178670711605596</v>
+        <v>0.0206317544918632</v>
       </c>
       <c r="T10">
-        <v>0.0134831855187688</v>
+        <v>0.01439950026116626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J11">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>4769.283628710901</v>
+        <v>7452.585114832869</v>
       </c>
       <c r="R11">
-        <v>42923.55265839811</v>
+        <v>67073.26603349582</v>
       </c>
       <c r="S11">
-        <v>0.0416460854458956</v>
+        <v>0.07829139762603875</v>
       </c>
       <c r="T11">
-        <v>0.04714162924226474</v>
+        <v>0.08196275801516252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H12">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I12">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J12">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>7.002227731049779</v>
+        <v>8.763835853771557</v>
       </c>
       <c r="R12">
-        <v>63.02004957944801</v>
+        <v>78.87452268394401</v>
       </c>
       <c r="S12">
-        <v>6.11444814570066E-05</v>
+        <v>9.206643694566525E-05</v>
       </c>
       <c r="T12">
-        <v>6.921299911372134E-05</v>
+        <v>9.638375762225587E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H13">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I13">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J13">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>46.11412494353445</v>
+        <v>44.36496378933556</v>
       </c>
       <c r="R13">
-        <v>415.02712449181</v>
+        <v>399.28467410402</v>
       </c>
       <c r="S13">
-        <v>0.0004026753150305363</v>
+        <v>0.0004660657969249607</v>
       </c>
       <c r="T13">
-        <v>0.0004558116375869974</v>
+        <v>0.0004879212696517192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H14">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I14">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J14">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>38.72714790908978</v>
+        <v>51.70758227935334</v>
       </c>
       <c r="R14">
-        <v>348.544331181808</v>
+        <v>465.36824051418</v>
       </c>
       <c r="S14">
-        <v>0.0003381711461211055</v>
+        <v>0.000543201965779193</v>
       </c>
       <c r="T14">
-        <v>0.0003827956126052667</v>
+        <v>0.000568674626134315</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H15">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I15">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J15">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>17.10437335562967</v>
+        <v>15.79465177137534</v>
       </c>
       <c r="R15">
-        <v>102.626240133778</v>
+        <v>94.767910628252</v>
       </c>
       <c r="S15">
-        <v>0.0001493579014631995</v>
+        <v>0.0001659270364770997</v>
       </c>
       <c r="T15">
-        <v>0.0001127112706959877</v>
+        <v>0.0001158052945050711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H16">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I16">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J16">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>39.86832468879823</v>
+        <v>59.93602544491556</v>
       </c>
       <c r="R16">
-        <v>358.814922199184</v>
+        <v>539.42422900424</v>
       </c>
       <c r="S16">
-        <v>0.0003481360694463839</v>
+        <v>0.0006296439595024328</v>
       </c>
       <c r="T16">
-        <v>0.0003940754895924607</v>
+        <v>0.0006591701905094451</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H17">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I17">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J17">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>1315.555354383452</v>
+        <v>223.2203288371247</v>
       </c>
       <c r="R17">
-        <v>7893.332126300713</v>
+        <v>1339.321973022748</v>
       </c>
       <c r="S17">
-        <v>0.01148762266258159</v>
+        <v>0.00234498918884127</v>
       </c>
       <c r="T17">
-        <v>0.008669006024395843</v>
+        <v>0.001636636014182358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H18">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I18">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J18">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>8663.769062118066</v>
+        <v>1130.003114063432</v>
       </c>
       <c r="R18">
-        <v>51982.61437270839</v>
+        <v>6780.01868438059</v>
       </c>
       <c r="S18">
-        <v>0.07565330450728516</v>
+        <v>0.01187098459911869</v>
       </c>
       <c r="T18">
-        <v>0.05709092053270165</v>
+        <v>0.008285104686696639</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H19">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I19">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J19">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>7275.928282921592</v>
+        <v>1317.024156129385</v>
       </c>
       <c r="R19">
-        <v>43655.56969752956</v>
+        <v>7902.14493677631</v>
       </c>
       <c r="S19">
-        <v>0.06353447489359389</v>
+        <v>0.01383569060961153</v>
       </c>
       <c r="T19">
-        <v>0.04794558123879183</v>
+        <v>0.009656330033642491</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H20">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I20">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J20">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>3213.513015521246</v>
+        <v>402.2995662061585</v>
       </c>
       <c r="R20">
-        <v>12854.05206208498</v>
+        <v>1609.198264824634</v>
       </c>
       <c r="S20">
-        <v>0.0280608678461148</v>
+        <v>0.004226264419300845</v>
       </c>
       <c r="T20">
-        <v>0.01411721348868873</v>
+        <v>0.001966421732205108</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H21">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I21">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J21">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>7490.328796659018</v>
+        <v>1526.607701494847</v>
       </c>
       <c r="R21">
-        <v>44941.97277995411</v>
+        <v>9159.646208969081</v>
       </c>
       <c r="S21">
-        <v>0.06540665168362601</v>
+        <v>0.0160374217449493</v>
       </c>
       <c r="T21">
-        <v>0.0493583985246858</v>
+        <v>0.01119298209446541</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H22">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I22">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J22">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>7.172865323491112</v>
+        <v>7.078762217516889</v>
       </c>
       <c r="R22">
-        <v>64.55578791142</v>
+        <v>63.70885995765201</v>
       </c>
       <c r="S22">
-        <v>6.263451398774422E-05</v>
+        <v>7.43642882211112E-05</v>
       </c>
       <c r="T22">
-        <v>7.089965370252302E-05</v>
+        <v>7.785149256818966E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H23">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I23">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J23">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>47.23788206200278</v>
+        <v>35.83465444737889</v>
       </c>
       <c r="R23">
-        <v>425.140938558025</v>
+        <v>322.51189002641</v>
       </c>
       <c r="S23">
-        <v>0.0004124881273142157</v>
+        <v>0.0003764526183736655</v>
       </c>
       <c r="T23">
-        <v>0.0004669193312285074</v>
+        <v>0.0003941058123820368</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H24">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I24">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J24">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>39.67089146259111</v>
+        <v>41.76546502074333</v>
       </c>
       <c r="R24">
-        <v>357.03802316332</v>
+        <v>375.88918518669</v>
       </c>
       <c r="S24">
-        <v>0.0003464120535042449</v>
+        <v>0.000438757367892035</v>
       </c>
       <c r="T24">
-        <v>0.0003921239755550211</v>
+        <v>0.0004593322518481144</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H25">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I25">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J25">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>17.52119057462417</v>
+        <v>12.75772231059433</v>
       </c>
       <c r="R25">
-        <v>105.127143447745</v>
+        <v>76.54633386356601</v>
       </c>
       <c r="S25">
-        <v>0.0001529976106667088</v>
+        <v>0.0001340232811609729</v>
       </c>
       <c r="T25">
-        <v>0.0001154579365588078</v>
+        <v>9.353873771815647E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H26">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I26">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J26">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>40.8398776289289</v>
+        <v>48.41177761276889</v>
       </c>
       <c r="R26">
-        <v>367.5588986603601</v>
+        <v>435.7059985149201</v>
       </c>
       <c r="S26">
-        <v>0.0003566198124798905</v>
+        <v>0.0005085786572663182</v>
       </c>
       <c r="T26">
-        <v>0.00040367873235562</v>
+        <v>0.0005324277082943753</v>
       </c>
     </row>
   </sheetData>
